--- a/wintershoes.xlsx
+++ b/wintershoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,17 +493,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
         </is>
       </c>
     </row>
@@ -520,24 +520,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
         </is>
       </c>
     </row>
@@ -554,24 +554,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ботинки Hike Jasper Boots</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d96/296_296_2/prz6wl121ld79utvycx08mz5x2ikmoy8.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fce/296_296_2/gh5aanm6398nggj8yh8in9n2jcrlvg3j.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d96/296_296_2/prz6wl121ld79utvycx08mz5x2ikmoy8.jpg </t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/73a/296_296_2/otaqo9e6c5bxwconk604mw7aodq0iy1p.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fce/296_296_2/gh5aanm6398nggj8yh8in9n2jcrlvg3j.jpg </t>
         </is>
       </c>
     </row>
@@ -622,24 +622,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7e0/296_296_2/25a7ffwjono87inwblbop3fr9k2h7s7q.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/73a/296_296_2/otaqo9e6c5bxwconk604mw7aodq0iy1p.jpg </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Ботинки Hike Jasper Boots</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa9/296_296_2/2iz1qgfnnmq49mfky0d34urzfjb3d2qd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7e0/296_296_2/25a7ffwjono87inwblbop3fr9k2h7s7q.jpg </t>
         </is>
       </c>
     </row>
@@ -656,56 +656,90 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1c/296_296_2/xbpb5mzt3w8rr1j1wv2g5975kxcbiima.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa9/296_296_2/2iz1qgfnnmq49mfky0d34urzfjb3d2qd.jpg </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ботинки Hike Jasper Boots</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8c7/296_296_2/umo8apf056kp7le3fk79z5cpyqrn0xn1.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1c/296_296_2/xbpb5mzt3w8rr1j1wv2g5975kxcbiima.jpg </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Lunar Force 1 Duckboot</t>
+          <t>Ботинки Hike Jasper Boots</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22.000.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d82/296_296_2/c8uts83k63bvquf4ol1q6mxx5o1kfvcd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8c7/296_296_2/umo8apf056kp7le3fk79z5cpyqrn0xn1.jpg </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Ботинки Hike Jasper Boots</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12.990.₽</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d10/296_296_2/7b81fnj6vtjsvz7ty499eo7ppliwvhff.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike Lunar Force 1 Duckboot</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22.000.₽</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d82/296_296_2/c8uts83k63bvquf4ol1q6mxx5o1kfvcd.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Кроссовки Reebok CL Lthr Mid GTX-Thin</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>18.990.₽</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f87/296_296_2/bj4f6o46w5qqd5tgudmd7wm88j4kt57o.jpg </t>
         </is>

--- a/wintershoes.xlsx
+++ b/wintershoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,66 +680,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ботинки Hike Jasper Boots</t>
+          <t>Кроссовки Reebok CL Lthr Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8c7/296_296_2/umo8apf056kp7le3fk79z5cpyqrn0xn1.jpg </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ботинки Hike Jasper Boots</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>12.990.₽</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d10/296_296_2/7b81fnj6vtjsvz7ty499eo7ppliwvhff.jpg </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Кроссовки Nike Lunar Force 1 Duckboot</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>22.000.₽</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d82/296_296_2/c8uts83k63bvquf4ol1q6mxx5o1kfvcd.jpg </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Кроссовки Reebok CL Lthr Mid GTX-Thin</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>18.990.₽</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f87/296_296_2/bj4f6o46w5qqd5tgudmd7wm88j4kt57o.jpg </t>
         </is>

--- a/wintershoes.xlsx
+++ b/wintershoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,12 @@
           <t>Image</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,6 +460,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327202/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -472,6 +482,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327201/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -489,6 +504,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-39327102/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,6 +526,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073985/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -523,6 +548,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-401/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -540,6 +570,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-001/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -557,6 +592,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237302/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -574,6 +614,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237301/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,6 +636,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d96/296_296_2/prz6wl121ld79utvycx08mz5x2ikmoy8.jpg </t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/boots/jasper-boots-HK-1323-010/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -608,6 +658,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fce/296_296_2/gh5aanm6398nggj8yh8in9n2jcrlvg3j.jpg </t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/boots/jasper-boots-HK-1323-008/</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -625,6 +680,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/73a/296_296_2/otaqo9e6c5bxwconk604mw7aodq0iy1p.jpg </t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/boots/jasper-boots-HK-1323-012/</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -642,6 +702,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7e0/296_296_2/25a7ffwjono87inwblbop3fr9k2h7s7q.jpg </t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/boots/jasper-boots-HK-1323-006/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -659,6 +724,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa9/296_296_2/2iz1qgfnnmq49mfky0d34urzfjb3d2qd.jpg </t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-100/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -676,6 +746,11 @@
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1c/296_296_2/xbpb5mzt3w8rr1j1wv2g5975kxcbiima.jpg </t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-500/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -691,6 +766,11 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f87/296_296_2/bj4f6o46w5qqd5tgudmd7wm88j4kt57o.jpg </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/cl-lthr-mid-gtx-thin-GZ6887/</t>
         </is>
       </c>
     </row>
